--- a/xlsx/间接选举_intext.xlsx
+++ b/xlsx/间接选举_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>间接选举</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_间接选举</t>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_间接选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>直接選舉</t>
+    <t>直接选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -101,25 +101,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2000年美國總統選舉</t>
+    <t>2000年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國聯邦最高法院</t>
+    <t>美国联邦最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E6%99%AE</t>
@@ -173,43 +173,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E9%81%B8</t>
   </si>
   <si>
-    <t>初選</t>
+    <t>初选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%A8%E5%9C%98%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>黨團會議</t>
+    <t>党团会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E4%B8%80%E4%B8%BB%E9%AB%94%E5%9C%8B%E6%B0%91%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>統一主體國民會議</t>
+    <t>统一主体国民会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%AD%A3%E7%86%99</t>
@@ -221,61 +221,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%97%E7%85%A5</t>
   </si>
   <si>
-    <t>全斗煥</t>
+    <t>全斗焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>中華民國總統</t>
+    <t>中华民国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國憲法</t>
+    <t>中华民国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83%E4%BB%A3%E8%A1%A8</t>
   </si>
   <si>
-    <t>國民大會代表</t>
+    <t>国民大会代表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>國民大會</t>
+    <t>国民大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1991%E5%B9%B4%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83%E4%BB%A3%E8%A1%A8%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1991年中華民國國民大會代表選舉</t>
+    <t>1991年中华民国国民大会代表选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>中國國民黨主席</t>
+    <t>中国国民党主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%99%BB%E8%BC%9D</t>
   </si>
   <si>
-    <t>李登輝</t>
+    <t>李登辉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%85%83%E7%B0%87</t>
@@ -287,51 +287,48 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E5%95%9F%E6%8F%9A</t>
   </si>
   <si>
-    <t>施啟揚</t>
+    <t>施启扬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%8B%B1%E4%B9%9D</t>
   </si>
   <si>
-    <t>馬英九</t>
+    <t>马英九</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%9C%88%E6%94%BF%E7%88%AD</t>
   </si>
   <si>
-    <t>二月政爭</t>
+    <t>二月政争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E7%99%BE%E5%90%88%E5%AD%B8%E9%81%8B</t>
   </si>
   <si>
-    <t>野百合學運</t>
+    <t>野百合学运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E5%B1%B1%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>圓山飯店</t>
+    <t>圆山饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E4%B8%AD</t>
   </si>
   <si>
-    <t>關中</t>
+    <t>关中</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>台灣地區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%A5%9A%E7%91%9C</t>
   </si>
   <si>
@@ -347,25 +344,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>自由地區</t>
+    <t>自由地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1996年中華民國總統選舉</t>
+    <t>1996年中华民国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%A8%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>中華民國在台灣</t>
+    <t>中华民国在台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>印度總統</t>
+    <t>印度总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -377,19 +374,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>巴基斯坦總統</t>
+    <t>巴基斯坦总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>孟加拉總統</t>
+    <t>孟加拉总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>緬甸總統</t>
+    <t>缅甸总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%9C%80%E9%AB%98%E9%A2%86%E8%A2%96</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>哈薩克總統</t>
+    <t>哈萨克总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>馬達加斯加總統</t>
+    <t>马达加斯加总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E6%80%BB%E7%BB%9F</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>意大利總統</t>
+    <t>意大利总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A%E6%80%BB%E7%BB%9F</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>拉脫維亞總統</t>
+    <t>拉脱维亚总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E6%80%BB%E7%BB%9F</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>黎巴嫩總統</t>
+    <t>黎巴嫩总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E6%80%BB%E7%BB%9F</t>
@@ -467,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>法國參議院</t>
+    <t>法国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>愛爾蘭參議院</t>
+    <t>爱尔兰参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -503,25 +500,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>印尼總統</t>
+    <t>印尼总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%A4%A7</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E8%AB%AE%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>臺灣省諮議會</t>
+    <t>台湾省谘议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -545,31 +542,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%B0%E7%81%A3%E6%96%B0%E8%81%9E%E5%91%A8%E5%88%8A</t>
   </si>
   <si>
-    <t>新台灣新聞周刊</t>
+    <t>新台湾新闻周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>美國選舉人團</t>
+    <t>美国选举人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%8F%8A%E5%89%AF%E7%B8%BD%E7%B5%B1%E5%9C%A8%E8%87%BA%E7%81%A3%E4%B9%8B%E5%85%AC%E6%B0%91%E7%9B%B4%E6%8E%A5%E9%81%B8%E8%88%89%E8%88%87%E7%BD%B7%E5%85%8D</t>
   </si>
   <si>
-    <t>中華民國總統及副總統在臺灣之公民直接選舉與罷免</t>
+    <t>中华民国总统及副总统在台湾之公民直接选举与罢免</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>終身參議員</t>
+    <t>终身参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E9%81%B8%E8%88%89</t>
@@ -2457,7 +2454,7 @@
         <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2483,10 +2480,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2512,10 +2509,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2541,10 +2538,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2570,10 +2567,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2599,10 +2596,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2628,10 +2625,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2657,10 +2654,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2686,10 +2683,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2715,10 +2712,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2744,10 +2741,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2773,10 +2770,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2802,10 +2799,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2831,10 +2828,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2860,10 +2857,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2889,10 +2886,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2918,10 +2915,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2947,10 +2944,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2976,10 +2973,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3005,10 +3002,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3034,10 +3031,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3063,10 +3060,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3092,10 +3089,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3121,10 +3118,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3150,10 +3147,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3179,10 +3176,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3208,10 +3205,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3237,10 +3234,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3266,10 +3263,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3295,10 +3292,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3324,10 +3321,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3353,10 +3350,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3382,10 +3379,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3411,10 +3408,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3440,10 +3437,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3469,10 +3466,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -3498,10 +3495,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3527,10 +3524,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3556,10 +3553,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3585,10 +3582,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3614,10 +3611,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3643,10 +3640,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
@@ -3672,10 +3669,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
